--- a/framework/inputs/_recipients.xlsx
+++ b/framework/inputs/_recipients.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_94F083CFD5C304E13DCFCC97D8D73B5EE4F0B289" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB52401-2DC7-477D-86DC-4F00F2F4C19C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>email_address</t>
   </si>
@@ -63,41 +62,20 @@
     <t>environment</t>
   </si>
   <si>
-    <t>sisua.developer@sisuadigital.com</t>
-  </si>
-  <si>
-    <t>client_1@company.com</t>
-  </si>
-  <si>
-    <t>client_2@company.com</t>
-  </si>
-  <si>
-    <t>sisua.project_manager@sisuadigital.com</t>
-  </si>
-  <si>
-    <t>PRD - client</t>
-  </si>
-  <si>
-    <t>PRD - Sisua</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>process_reports@sisuadigital.com</t>
-  </si>
-  <si>
-    <t>PRD - Sisua (mandatory)</t>
-  </si>
-  <si>
-    <t>QA/UAT</t>
+    <t>mr.cuong1402@gmail.com</t>
+  </si>
+  <si>
+    <t>nachuan20102018@gmail.com</t>
+  </si>
+  <si>
+    <t>mypttm@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,26 +204,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -470,13 +428,32 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Open Sans"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -494,46 +471,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="email_address" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="environment" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="system_exception" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="business_exception" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="execution_report" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="recipient_type" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="observation" dataDxfId="2"/>
+    <tableColumn id="1" name="email_address" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="environment" dataDxfId="5"/>
+    <tableColumn id="3" name="system_exception" dataDxfId="4"/>
+    <tableColumn id="4" name="business_exception" dataDxfId="3"/>
+    <tableColumn id="5" name="execution_report" dataDxfId="2"/>
+    <tableColumn id="6" name="recipient_type" dataDxfId="1"/>
+    <tableColumn id="7" name="observation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B2:B5" totalsRowShown="0">
-  <autoFilter ref="B2:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:B5" totalsRowShown="0">
+  <autoFilter ref="B2:B5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="environments"/>
+    <tableColumn id="1" name="environments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="D2:D5" totalsRowShown="0">
-  <autoFilter ref="D2:D5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D2:D5" totalsRowShown="0">
+  <autoFilter ref="D2:D5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="type"/>
+    <tableColumn id="1" name="type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D44A276C-F24D-458A-944C-7B63C30F2CCE}" name="Table44" displayName="Table44" ref="F2:F5" totalsRowShown="0">
-  <autoFilter ref="F2:F5" xr:uid="{D44A276C-F24D-458A-944C-7B63C30F2CCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table44" displayName="Table44" ref="F2:F5" totalsRowShown="0">
+  <autoFilter ref="F2:F5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9C5D4945-145A-47E4-9439-DB50B260D6F6}" name="boolean"/>
+    <tableColumn id="1" name="boolean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -808,26 +785,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -869,16 +846,14 @@
       <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>12</v>
@@ -892,14 +867,10 @@
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
       <c r="B4" s="8">
         <v>20</v>
       </c>
@@ -915,11 +886,9 @@
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -927,10 +896,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>12</v>
@@ -938,13 +907,11 @@
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <v>30</v>
@@ -959,16 +926,12 @@
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="12">
         <v>30</v>
       </c>
@@ -984,14 +947,10 @@
       <c r="F7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
       <c r="B8" s="8">
         <v>30</v>
       </c>
@@ -1007,14 +966,10 @@
       <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
       <c r="B9" s="15">
         <v>30</v>
       </c>
@@ -1030,11 +985,9 @@
       <c r="F9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1045,47 +998,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{C4DA2842-0206-4F37-B8F7-2779EF7DC33D}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{080D2F63-5A5F-4E0F-9142-16ECED1875C7}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{658F780B-C376-445A-8E45-AA24CCECE392}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{ACF0601B-9AA9-43B0-B190-B0BF4FC01F0A}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{6697DD5C-8D58-423E-A6B5-F784D6DB3C70}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{7671C118-B93F-41E0-9CDE-056813BDE7E7}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{7184EAB3-99EE-4CEB-AE29-7AF48F6408D7}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{ACE3EABD-5FA7-4C06-97DB-942E829D1E8C}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="F1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_internal!$B$3:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_internal!$D$3:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3631E794-EA23-47A4-999B-6FF60605837B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_internal!$F$3:$F$4</xm:f>
           </x14:formula1>
@@ -1098,20 +1046,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>10</v>
       </c>
@@ -1133,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>20</v>
       </c>
@@ -1144,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>30</v>
       </c>
@@ -1163,18 +1111,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1362,18 +1310,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
